--- a/grouped_data.xlsx
+++ b/grouped_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +441,11 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gen_info/surveyor_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Count</t>
         </is>
       </c>
@@ -451,28 +456,2158 @@
           <t>Baghlan</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>5</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ajmal Amin</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Balkh</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>10</v>
+          <t>Baghlan</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Kefayatullah Osmani</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ghazni</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+          <t>Baghlan</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mohammad Dawood</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baghlan</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>kefayatullah Osmani</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Balkh</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Abdul Wali Yorish</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Balkh</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abdul Wali Yorish </t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Balkh</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fraidon karimi</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Balkh</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mohammad Ibrahim</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Balkh</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mohammad Ibrahim </t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Balkh</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Said Sharifullah"Sadaat"</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Farah</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sayed Masood Habibi </t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Farah</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ehsanullah barakzai</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Farah</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ehsanullah barakzai </t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Farah</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Masood Habibi </t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Farah</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Nematullah</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Farah</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nematullah Barakzai</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Farah</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Noor Ahmad</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Farah</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Noor Ahmad </t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Farah</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sayed Masood Habibi </t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Farah</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>نوراحمد</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Helmand</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>744821287</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Helmand</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Arfan</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Helmand</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arfan </t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Helmand</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>M.Hakim</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Herat</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Abdul Basir</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Herat</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Abdul Basir Ataee</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Herat</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Abdul Basir Atayee</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Herat</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Ghiasuddin Jamshidi</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Herat</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ghiasuddin Jamshidi </t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Herat</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Gul Ahmad Ahadi</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Herat</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gul Ahmad Ahadi </t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Herat</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Khalilurrahman</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Herat</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Khalilurrahman </t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Herat</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Nawab Ahadi</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Herat</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nawab Ahadi </t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Herat</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Sebghatullah Zarifi</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Herat</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sebghatullah Zarifi </t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Herat</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sebghatullah zarifi </t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Herat</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Sebghaullah Zarifi</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Herat</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Tooryalai Zalmai</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Herat</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tooryalai Zalmai </t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Herat</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Zobair Mohammadi</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Herat</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zobair Mohammadi </t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Herat</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Zobair mihmmadi</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Herat</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Zobair mohmmad</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Herat</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Zobair mohmmadi</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Herat</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Zobair mohmmdi</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Herat</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Zobairmohmmadi</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Herat</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>saifaddin jamalyar</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Herat</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ضیاءالحق  ضیایی</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Herat</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ضیاءالحق ضیایی</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Herat</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ضیاءالحق ضیایی </t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Herat</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ضیاوالحق ضیایی </t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Kabul</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Hamid oryakhail</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Kabul</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Hayat ullah Ahamadzai</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Kabul</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hayat ullah Ahamadzai </t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Kandahar</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Haleem</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Kandahar</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haleem </t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Kandahar</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Kakar</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Kandahar</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kakar </t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Kandahar</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Mohib</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Kandahar</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Wahabzai</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Kandahar</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zafran Sahil </t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Kandahar</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Zafran sahil</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Kandahar</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zafran sahil </t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Kapisa</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Abdul Naser Omar</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Kapisa</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abdul Naser Omar </t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Kapisa</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>AbdulNasir Omar</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Kapisa</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Paican</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Kapisa</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Tawab mohammed i</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Kapisa</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Tawab mohammedi</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Khost</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Hijratullah Safi</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Khost</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Hijratullah safi</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Khost</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Hikmatullah Hamdard</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Kunar</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Din Mohammad Mohammadi</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Kunar</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Din Mohmmad Mohammadi</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Kunar</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Rasool Khan</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Kunar</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rasool Khan </t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Kunar</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Shahswar yousafzai</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Kunar</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shahswar yousafzai </t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Kunduz</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Ahmad Zia zafer</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Kunduz</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ahmad Zia zafer </t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Kunduz</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Inayat ur Rahman</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Kunduz</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inayat ur Rahman </t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Kunduz</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>M Ebrahim</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Kunduz</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M Ebrahim </t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Kunduz</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Rahimullah Mayar</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Logar</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abdul Ahmad </t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Logar</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Abdul ahmad</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Logar</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abdul ahmad </t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Logar</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abdullah ahmad </t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Logar</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Ahmad Zia Hemat</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Logar</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ahmad Zia Hemat </t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Logar</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Hamdullah</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Logar</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Mohammad Shoaib Waqar</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Logar</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mohammad Shoaib Waqar </t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Nimroz</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Milad</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Nimroz</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Mohammad Mohammadi</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Nimroz</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Yaser</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Paktya</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Ajmal Ahmadi</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Paktya</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Ajmal ahmadi</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Paktya</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ajmal ahmadi </t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Paktya</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ajmal ahmdi </t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Paktya</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>HazratwaliSarwari</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Paktya</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Mangat Khil</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Paktya</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Satar</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Paktya</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>mohibudin</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Paktya</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mohibudin </t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Panjshir</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Merzamir Azimi</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Panjshir</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Qayum</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Panjshir</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Qayum </t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Parwan</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Ezatulah</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Parwan</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Ezatullah</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Parwan</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Haseebullah</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Parwan</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Hussain sadat</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Parwan</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Mohammad Wasiq</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Parwan</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mohammad Wasiq </t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Parwan</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Murtaza maleki</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Parwan</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Shahullhaq Ahmadi</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Parwan</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>ShahullhaqAhmadi</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Parwan</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Zaker</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Parwan</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>ezatulah</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Parwan</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>ezatullah</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Parwan</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>haseebullah</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Samangan</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abdul Matin Amini </t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Samangan</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Motahar</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Samangan</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Motahar </t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Samangan</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>،Motahar</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Sar-e-Pul</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Abdul Hamid Noori</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Sar-e-Pul</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Rasool Rezaei</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Sar-e-Pul</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rasool Rezaei </t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Sar-e-Pul</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Reza Nabawi</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Uruzgan</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Abdul Qadir Ahmadi</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Uruzgan</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Eng AbdulQadir ahmade</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Uruzgan</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Obaidullah danish</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Uruzgan</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Obaidullah danish </t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Wardak</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Abdul Hadi Sahibi</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Wardak</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abdul Hadi Sahibi </t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Wardak</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Ahmad tamim noori</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Wardak</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Fazalullah Waqar</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Wardak</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fazalullah Waqar </t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Wardak</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Shafiqullahsherzad</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Wardak</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Zubair</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Wardak</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Zubair wahidi</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/grouped_data.xlsx
+++ b/grouped_data.xlsx
@@ -1,37 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+  <si>
+    <t>gen_info/province</t>
+  </si>
+  <si>
+    <t>gen_info/district</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Nangarhar</t>
+  </si>
+  <si>
+    <t>Paktya</t>
+  </si>
+  <si>
+    <t>Bati Kot</t>
+  </si>
+  <si>
+    <t>Behsud</t>
+  </si>
+  <si>
+    <t>Chaparhar</t>
+  </si>
+  <si>
+    <t>Hisarak</t>
+  </si>
+  <si>
+    <t>Kama</t>
+  </si>
+  <si>
+    <t>Lal Pora</t>
+  </si>
+  <si>
+    <t>Pachir Wa Agam</t>
+  </si>
+  <si>
+    <t>Surkhrod</t>
+  </si>
+  <si>
+    <t>Janikhel</t>
+  </si>
+  <si>
+    <t>Shawak</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +99,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,52 +415,135 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>gen_info/province</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Count</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Nangarhar</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Paktya</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>